--- a/XLSX/Operational PortalDataForm.xlsx
+++ b/XLSX/Operational PortalDataForm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marquis\Daily Automation\9-12-23\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DBA908-FE11-428F-8D50-CF8761BC42CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37ADA9E-788B-4A64-AE98-E0204A756F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7C03AA0-BB82-4B74-B6A3-936F51F7D81B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Operational Portal Login Data</t>
   </si>
@@ -51,13 +51,201 @@
   </si>
   <si>
     <t>WFG6eKRvi3kvpQ</t>
+  </si>
+  <si>
+    <t>Validation Statuses Table</t>
+  </si>
+  <si>
+    <t>Resubmit back/front of ID Card</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>CheckList Options</t>
+  </si>
+  <si>
+    <t>Pass/Fail/NA</t>
+  </si>
+  <si>
+    <t>AML response Approved</t>
+  </si>
+  <si>
+    <t>Correct Documentation submitted(refer to requirements under Salaried/Sole Prop/Agri)</t>
+  </si>
+  <si>
+    <t>Bank Statements received match bank account details captured under additional details in Financier</t>
+  </si>
+  <si>
+    <t>Name &amp; Account number appear on statement</t>
+  </si>
+  <si>
+    <t>UIF correct &amp; Tax reasonability</t>
+  </si>
+  <si>
+    <t>Garnishing order(Under R300/N/A -Pass)/(Over R300 -Fail)</t>
+  </si>
+  <si>
+    <t>Employment acceptable</t>
+  </si>
+  <si>
+    <t>Two or more unpaid  debit order(other than insurance/investment)</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Multiple providers prepaid airtime</t>
+  </si>
+  <si>
+    <t>Profile Building</t>
+  </si>
+  <si>
+    <t>Fraud Checks - Multiple cash withdrawals after payday: round amounts: Capitec accounts(be weary):</t>
+  </si>
+  <si>
+    <t>No Debit Order, layout of bank statements</t>
+  </si>
+  <si>
+    <t>Options Title</t>
+  </si>
+  <si>
+    <t>30- Day Pay Out Check</t>
+  </si>
+  <si>
+    <t>KYC Outcome</t>
+  </si>
+  <si>
+    <t>AVS Outcome</t>
+  </si>
+  <si>
+    <t>POI Outcome</t>
+  </si>
+  <si>
+    <t>Approve/Reject/Retry Button</t>
+  </si>
+  <si>
+    <t>Resubmit ID Copy</t>
+  </si>
+  <si>
+    <t>Amend cust name per ID doc</t>
+  </si>
+  <si>
+    <t>Submit marriage certificate</t>
+  </si>
+  <si>
+    <t>Submit affidavit - tempID/PPT</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>BankDetails must belong toCust</t>
+  </si>
+  <si>
+    <t>Amend banking details</t>
+  </si>
+  <si>
+    <t>POI Outcome- Reject Reasons.</t>
+  </si>
+  <si>
+    <t>AVS Outcome- Reject Reasons</t>
+  </si>
+  <si>
+    <t>Submit 3 months’ BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submit 3 additional months’ BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submit payslip</t>
+  </si>
+  <si>
+    <t>Submit ITA34</t>
+  </si>
+  <si>
+    <t>Submit pension letter</t>
+  </si>
+  <si>
+    <t>Submit increase letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submit latest CIPC cert.</t>
+  </si>
+  <si>
+    <t>Submit latest audited FinStat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amend income details &amp;resubmit</t>
+  </si>
+  <si>
+    <t>POR/KYC KYC Outcome Table</t>
+  </si>
+  <si>
+    <t>Option Title</t>
+  </si>
+  <si>
+    <t>Approve/Reject/Retry Button.</t>
+  </si>
+  <si>
+    <t>POR Outcome</t>
+  </si>
+  <si>
+    <t>KYC Fraud Outcome</t>
+  </si>
+  <si>
+    <t>AML Outcome</t>
+  </si>
+  <si>
+    <t>POR Outcome Rejection Reasons Option.</t>
+  </si>
+  <si>
+    <t>Submit valid proof of addre</t>
+  </si>
+  <si>
+    <t>Submit POA declarationEvidence</t>
+  </si>
+  <si>
+    <t>KYC Fraud Outcome Rejection Reason Option</t>
+  </si>
+  <si>
+    <t>Final Options</t>
+  </si>
+  <si>
+    <t>Approve Vals</t>
+  </si>
+  <si>
+    <t>Reject Vals</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KYC Outcome-Reject Reasons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Whatever the options you need to click on the checkBox Just pass the Click.</t>
+    </r>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Reject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +267,68 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,10 +341,118 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -106,13 +462,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,47 +883,1912 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6AD13E-2DC1-4690-A5C9-4EC079E242C9}">
-  <dimension ref="F1:G5"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="48" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="33.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="16"/>
+    <col min="10" max="10" width="48" style="3" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="16"/>
+    <col min="15" max="15" width="11.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="29" style="16" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="36" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20" style="16" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="44.42578125" style="16" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:32" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="S1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="20"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+    </row>
+    <row r="2" spans="1:32" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+    </row>
+    <row r="3" spans="1:32" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+    </row>
+    <row r="4" spans="1:32" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="6:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G5" s="3"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+    </row>
+    <row r="5" spans="1:32" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+    </row>
+    <row r="6" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+    </row>
+    <row r="7" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+    </row>
+    <row r="9" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+    </row>
+    <row r="11" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+    </row>
+    <row r="12" spans="1:32" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+    </row>
+    <row r="13" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+    </row>
+    <row r="14" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+    </row>
+    <row r="15" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+    </row>
+    <row r="16" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+    </row>
+    <row r="17" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+    </row>
+    <row r="18" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+    </row>
+    <row r="19" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+    </row>
+    <row r="20" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+    </row>
+    <row r="21" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+    </row>
+    <row r="22" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+    </row>
+    <row r="23" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+    </row>
+    <row r="24" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+    </row>
+    <row r="25" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+    </row>
+    <row r="26" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+    </row>
+    <row r="27" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+    </row>
+    <row r="28" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+    </row>
+    <row r="29" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+    </row>
+    <row r="30" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+    </row>
+    <row r="31" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+    </row>
+    <row r="32" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+    </row>
+    <row r="33" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+    </row>
+    <row r="34" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+    </row>
+    <row r="35" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+    </row>
+    <row r="36" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+    </row>
+    <row r="37" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+    </row>
+    <row r="38" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+    </row>
+    <row r="39" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+    </row>
+    <row r="40" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+    </row>
+    <row r="41" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+    </row>
+    <row r="42" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+    </row>
+    <row r="43" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="O44" s="14"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="O45" s="14"/>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="O46" s="14"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="O47" s="14"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="O48" s="14"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="O49" s="14"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="O50" s="14"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="O51" s="14"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="O52" s="14"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="O53" s="14"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="O54" s="14"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="O55" s="14"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="O56" s="14"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="O57" s="14"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="O58" s="14"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="O59" s="14"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="O60" s="14"/>
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="O61" s="14"/>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="O62" s="14"/>
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="O63" s="14"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="O64" s="14"/>
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J65" s="9"/>
+      <c r="M65" s="8"/>
+      <c r="O65" s="15"/>
+      <c r="Q65" s="15"/>
+    </row>
+    <row r="66" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J66" s="9"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J67" s="9"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J68" s="9"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J69" s="9"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J70" s="9"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J71" s="9"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J72" s="9"/>
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J73" s="9"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J74" s="9"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J75" s="9"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J76" s="9"/>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J77" s="9"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J78" s="9"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J79" s="9"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J80" s="9"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J81" s="9"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J82" s="9"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J83" s="9"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J84" s="9"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J85" s="9"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J86" s="9"/>
+      <c r="M86" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/XLSX/Operational PortalDataForm.xlsx
+++ b/XLSX/Operational PortalDataForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marquis\Daily Automation\9-12-23\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\Marquis\Master download\8-2-2023\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37ADA9E-788B-4A64-AE98-E0204A756F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38166F2-EC9C-443B-9E20-794BC7710627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7C03AA0-BB82-4B74-B6A3-936F51F7D81B}"/>
+    <workbookView xWindow="804" yWindow="804" windowWidth="21600" windowHeight="11112" xr2:uid="{F7C03AA0-BB82-4B74-B6A3-936F51F7D81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -45,12 +34,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Bhairub</t>
-  </si>
-  <si>
-    <t>WFG6eKRvi3kvpQ</t>
   </si>
   <si>
     <t>Validation Statuses Table</t>
@@ -239,6 +222,12 @@
   </si>
   <si>
     <t>Reject</t>
+  </si>
+  <si>
+    <t>Fer1C623RGRvD4mN%C</t>
+  </si>
+  <si>
+    <t>raghup</t>
   </si>
 </sst>
 </file>
@@ -886,42 +875,42 @@
   <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="16" customWidth="1"/>
     <col min="3" max="3" width="48" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="33.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="16" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="16"/>
+    <col min="4" max="4" width="30.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="16"/>
+    <col min="6" max="6" width="33.44140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="16"/>
     <col min="10" max="10" width="48" style="3" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="16"/>
-    <col min="15" max="15" width="11.28515625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="16"/>
+    <col min="15" max="15" width="11.33203125" style="10" customWidth="1"/>
     <col min="16" max="16" width="29" style="16" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="10" customWidth="1"/>
     <col min="18" max="18" width="36" style="16" customWidth="1"/>
     <col min="19" max="19" width="20" style="16" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" style="16" customWidth="1"/>
-    <col min="21" max="21" width="44.42578125" style="16" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="16"/>
+    <col min="20" max="20" width="17.109375" style="16" customWidth="1"/>
+    <col min="21" max="21" width="44.44140625" style="16" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="16"/>
       <c r="C1" s="31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="32" t="s">
@@ -931,21 +920,21 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
       <c r="M1" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="30"/>
       <c r="P1" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="11"/>
       <c r="S1" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T1" s="20"/>
       <c r="V1" s="16"/>
@@ -960,41 +949,41 @@
       <c r="AE1" s="16"/>
       <c r="AF1" s="16"/>
     </row>
-    <row r="2" spans="1:32" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="13" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
@@ -1009,47 +998,47 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
     </row>
-    <row r="3" spans="1:32" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
@@ -1064,43 +1053,43 @@
       <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
     </row>
-    <row r="4" spans="1:32" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="14"/>
@@ -1118,14 +1107,14 @@
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
     </row>
-    <row r="5" spans="1:32" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="13" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -1133,24 +1122,24 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="14"/>
@@ -1168,30 +1157,30 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="16"/>
@@ -1211,21 +1200,21 @@
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
     </row>
-    <row r="7" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -1237,7 +1226,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="16"/>
@@ -1254,21 +1243,21 @@
       <c r="AE7" s="16"/>
       <c r="AF7" s="16"/>
     </row>
-    <row r="8" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -1276,7 +1265,7 @@
       <c r="K8" s="16"/>
       <c r="L8" s="14"/>
       <c r="M8" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="16"/>
@@ -1297,21 +1286,21 @@
       <c r="AE8" s="16"/>
       <c r="AF8" s="16"/>
     </row>
-    <row r="9" spans="1:32" s="13" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -1319,21 +1308,21 @@
       <c r="K9" s="16"/>
       <c r="L9" s="14"/>
       <c r="M9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -1349,21 +1338,21 @@
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
     </row>
-    <row r="10" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -1371,19 +1360,19 @@
       <c r="K10" s="16"/>
       <c r="L10" s="14"/>
       <c r="M10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -1399,21 +1388,21 @@
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
     </row>
-    <row r="11" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1424,16 +1413,16 @@
       <c r="N11" s="24"/>
       <c r="O11" s="14"/>
       <c r="P11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
@@ -1449,21 +1438,21 @@
       <c r="AE11" s="16"/>
       <c r="AF11" s="16"/>
     </row>
-    <row r="12" spans="1:32" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -1474,16 +1463,16 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
@@ -1499,21 +1488,21 @@
       <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -1525,10 +1514,10 @@
       <c r="O13" s="14"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
@@ -1544,17 +1533,17 @@
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
     </row>
-    <row r="14" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="16"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4"/>
       <c r="E14" s="23"/>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1582,17 +1571,17 @@
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
     </row>
-    <row r="15" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="16"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="16"/>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1620,7 +1609,7 @@
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
     </row>
-    <row r="16" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="16"/>
       <c r="C16" s="2"/>
@@ -1654,7 +1643,7 @@
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
     </row>
-    <row r="17" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="16"/>
       <c r="C17" s="2"/>
@@ -1688,7 +1677,7 @@
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
     </row>
-    <row r="18" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="16"/>
       <c r="C18" s="2"/>
@@ -1722,7 +1711,7 @@
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
     </row>
-    <row r="19" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="16"/>
       <c r="C19" s="2"/>
@@ -1756,7 +1745,7 @@
       <c r="AE19" s="16"/>
       <c r="AF19" s="16"/>
     </row>
-    <row r="20" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="16"/>
       <c r="C20" s="2"/>
@@ -1790,7 +1779,7 @@
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
     </row>
-    <row r="21" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="16"/>
       <c r="C21" s="2"/>
@@ -1824,7 +1813,7 @@
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
     </row>
-    <row r="22" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="16"/>
       <c r="C22" s="2"/>
@@ -1858,7 +1847,7 @@
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
     </row>
-    <row r="23" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="16"/>
       <c r="C23" s="2"/>
@@ -1892,7 +1881,7 @@
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
     </row>
-    <row r="24" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="16"/>
       <c r="C24" s="2"/>
@@ -1926,7 +1915,7 @@
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
     </row>
-    <row r="25" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="16"/>
       <c r="C25" s="2"/>
@@ -1960,7 +1949,7 @@
       <c r="AE25" s="16"/>
       <c r="AF25" s="16"/>
     </row>
-    <row r="26" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="16"/>
       <c r="C26" s="2"/>
@@ -1994,7 +1983,7 @@
       <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
     </row>
-    <row r="27" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="16"/>
       <c r="C27" s="2"/>
@@ -2028,7 +2017,7 @@
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
     </row>
-    <row r="28" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="16"/>
       <c r="C28" s="2"/>
@@ -2062,7 +2051,7 @@
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
     </row>
-    <row r="29" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="16"/>
       <c r="C29" s="2"/>
@@ -2096,7 +2085,7 @@
       <c r="AE29" s="16"/>
       <c r="AF29" s="16"/>
     </row>
-    <row r="30" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="16"/>
       <c r="C30" s="2"/>
@@ -2130,7 +2119,7 @@
       <c r="AE30" s="16"/>
       <c r="AF30" s="16"/>
     </row>
-    <row r="31" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="16"/>
       <c r="C31" s="2"/>
@@ -2164,7 +2153,7 @@
       <c r="AE31" s="16"/>
       <c r="AF31" s="16"/>
     </row>
-    <row r="32" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="16"/>
       <c r="C32" s="2"/>
@@ -2198,7 +2187,7 @@
       <c r="AE32" s="16"/>
       <c r="AF32" s="16"/>
     </row>
-    <row r="33" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="16"/>
       <c r="C33" s="2"/>
@@ -2232,7 +2221,7 @@
       <c r="AE33" s="16"/>
       <c r="AF33" s="16"/>
     </row>
-    <row r="34" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="16"/>
       <c r="C34" s="2"/>
@@ -2266,7 +2255,7 @@
       <c r="AE34" s="16"/>
       <c r="AF34" s="16"/>
     </row>
-    <row r="35" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="16"/>
       <c r="C35" s="2"/>
@@ -2300,7 +2289,7 @@
       <c r="AE35" s="16"/>
       <c r="AF35" s="16"/>
     </row>
-    <row r="36" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="16"/>
       <c r="C36" s="2"/>
@@ -2334,7 +2323,7 @@
       <c r="AE36" s="16"/>
       <c r="AF36" s="16"/>
     </row>
-    <row r="37" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="16"/>
       <c r="C37" s="2"/>
@@ -2368,7 +2357,7 @@
       <c r="AE37" s="16"/>
       <c r="AF37" s="16"/>
     </row>
-    <row r="38" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="16"/>
       <c r="C38" s="2"/>
@@ -2402,7 +2391,7 @@
       <c r="AE38" s="16"/>
       <c r="AF38" s="16"/>
     </row>
-    <row r="39" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="16"/>
       <c r="C39" s="2"/>
@@ -2436,7 +2425,7 @@
       <c r="AE39" s="16"/>
       <c r="AF39" s="16"/>
     </row>
-    <row r="40" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="16"/>
       <c r="C40" s="2"/>
@@ -2470,7 +2459,7 @@
       <c r="AE40" s="16"/>
       <c r="AF40" s="16"/>
     </row>
-    <row r="41" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="16"/>
       <c r="C41" s="2"/>
@@ -2504,7 +2493,7 @@
       <c r="AE41" s="16"/>
       <c r="AF41" s="16"/>
     </row>
-    <row r="42" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="16"/>
       <c r="C42" s="2"/>
@@ -2538,7 +2527,7 @@
       <c r="AE42" s="16"/>
       <c r="AF42" s="16"/>
     </row>
-    <row r="43" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="16"/>
       <c r="C43" s="2"/>
@@ -2572,219 +2561,219 @@
       <c r="AE43" s="16"/>
       <c r="AF43" s="16"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J44" s="9"/>
       <c r="M44" s="9"/>
       <c r="O44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J45" s="9"/>
       <c r="M45" s="9"/>
       <c r="O45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J46" s="9"/>
       <c r="M46" s="9"/>
       <c r="O46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J47" s="9"/>
       <c r="M47" s="9"/>
       <c r="O47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J48" s="9"/>
       <c r="M48" s="9"/>
       <c r="O48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J49" s="9"/>
       <c r="M49" s="9"/>
       <c r="O49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J50" s="9"/>
       <c r="M50" s="9"/>
       <c r="O50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J51" s="9"/>
       <c r="M51" s="9"/>
       <c r="O51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J52" s="9"/>
       <c r="M52" s="9"/>
       <c r="O52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J53" s="9"/>
       <c r="M53" s="9"/>
       <c r="O53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J54" s="9"/>
       <c r="M54" s="9"/>
       <c r="O54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J55" s="9"/>
       <c r="M55" s="9"/>
       <c r="O55" s="14"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J56" s="9"/>
       <c r="M56" s="9"/>
       <c r="O56" s="14"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J57" s="9"/>
       <c r="M57" s="9"/>
       <c r="O57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J58" s="9"/>
       <c r="M58" s="9"/>
       <c r="O58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J59" s="9"/>
       <c r="M59" s="9"/>
       <c r="O59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J60" s="9"/>
       <c r="M60" s="9"/>
       <c r="O60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J61" s="9"/>
       <c r="M61" s="9"/>
       <c r="O61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J62" s="9"/>
       <c r="M62" s="9"/>
       <c r="O62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J63" s="9"/>
       <c r="M63" s="9"/>
       <c r="O63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J64" s="9"/>
       <c r="M64" s="9"/>
       <c r="O64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J65" s="9"/>
       <c r="M65" s="8"/>
       <c r="O65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J66" s="9"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J67" s="9"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J68" s="9"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J69" s="9"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J70" s="9"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J71" s="9"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J72" s="9"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J73" s="9"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J74" s="9"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J75" s="9"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J76" s="9"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J77" s="9"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J78" s="9"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J79" s="9"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="10:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J80" s="9"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J81" s="9"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J82" s="9"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J83" s="9"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J84" s="9"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J85" s="9"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J86" s="9"/>
       <c r="M86" s="6"/>
     </row>

--- a/XLSX/Operational PortalDataForm.xlsx
+++ b/XLSX/Operational PortalDataForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marquis\Daily Automation\from MAster\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\Marquis\Master download\23-02-2023\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF94A5C4-6F86-474A-9CDB-BC81A07BCDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFBDFC-61F2-4C35-B2FD-2BE8EFB209E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D2CF105-7DB3-4735-9888-FFF71A4D6BC7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11112" xr2:uid="{6D2CF105-7DB3-4735-9888-FFF71A4D6BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="DocVals" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -212,12 +201,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Bhairub</t>
-  </si>
-  <si>
-    <t>WFG6eKRvi3kvpQ</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -240,6 +223,12 @@
   </si>
   <si>
     <t>Submit valid proof of address</t>
+  </si>
+  <si>
+    <t>Fer1C623RGRvD4mN%C</t>
+  </si>
+  <si>
+    <t>raghup</t>
   </si>
 </sst>
 </file>
@@ -412,23 +401,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C3EC0-A8D8-42A3-B485-490C2BB3164F}">
   <dimension ref="A1:CM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BK5" sqref="BK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,89 +775,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:91" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
       <c r="T1" s="21"/>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
       <c r="Y1" s="21"/>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="26"/>
+      <c r="AA1" s="24"/>
       <c r="AB1" s="21"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
       <c r="AM1" s="21"/>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
       <c r="AT1" s="21"/>
-      <c r="AU1" s="25" t="s">
+      <c r="AU1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
       <c r="AX1" s="21"/>
-      <c r="AY1" s="25" t="s">
+      <c r="AY1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
       <c r="BB1" s="21"/>
-      <c r="BC1" s="25" t="s">
+      <c r="BC1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
       <c r="BI1" s="21"/>
-      <c r="BJ1" s="25" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="BK1" s="25"/>
+      <c r="BK1" s="22"/>
     </row>
     <row r="2" spans="1:91" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -982,19 +971,19 @@
         <v>50</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AT2" s="21"/>
       <c r="AU2" s="23" t="s">
@@ -1007,17 +996,17 @@
         <v>48</v>
       </c>
       <c r="AX2" s="21"/>
-      <c r="AY2" s="27" t="s">
+      <c r="AY2" s="25" t="s">
         <v>50</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BB2" s="21"/>
-      <c r="BC2" s="27" t="s">
+      <c r="BC2" s="25" t="s">
         <v>50</v>
       </c>
       <c r="BD2" s="1" t="s">
@@ -1048,66 +1037,66 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T3" s="21"/>
       <c r="U3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>27</v>
@@ -1172,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="AX3" s="21"/>
-      <c r="AY3" s="27"/>
+      <c r="AY3" s="25"/>
       <c r="AZ3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1180,7 +1169,7 @@
         <v>31</v>
       </c>
       <c r="BB3" s="21"/>
-      <c r="BC3" s="27"/>
+      <c r="BC3" s="25"/>
       <c r="BD3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1198,10 +1187,10 @@
       </c>
       <c r="BI3" s="21"/>
       <c r="BJ3" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="BK3" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.3">
@@ -1461,6 +1450,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC1:AL1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="AN1:AS1"/>
     <mergeCell ref="AN2:AN3"/>
@@ -1471,11 +1465,6 @@
     <mergeCell ref="AU2:AU3"/>
     <mergeCell ref="AY1:BA1"/>
     <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLSX/Operational PortalDataForm.xlsx
+++ b/XLSX/Operational PortalDataForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\Marquis\Master download\23-02-2023\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Marquis\Daily Automation\from MAster\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFBDFC-61F2-4C35-B2FD-2BE8EFB209E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D742534-B378-438A-A8E9-085AD8F671A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11112" xr2:uid="{6D2CF105-7DB3-4735-9888-FFF71A4D6BC7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D2CF105-7DB3-4735-9888-FFF71A4D6BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="DocVals" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Checklist Table</t>
   </si>
@@ -72,163 +83,160 @@
     <t>Pass/Fail/NA</t>
   </si>
   <si>
+    <t>Validation Status Table</t>
+  </si>
+  <si>
+    <t>30- Day Pay Out Check</t>
+  </si>
+  <si>
+    <t>KYC Outcome</t>
+  </si>
+  <si>
+    <t>AVS Outcome</t>
+  </si>
+  <si>
+    <t>POI Outcome</t>
+  </si>
+  <si>
+    <t>Check Options</t>
+  </si>
+  <si>
+    <t>Approve/Reject/Retry</t>
+  </si>
+  <si>
+    <t>POR/KYC Outcome Table</t>
+  </si>
+  <si>
+    <t>POR Outcome</t>
+  </si>
+  <si>
+    <t>KYC Fraud Outcome</t>
+  </si>
+  <si>
+    <t>AML Outcome</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>Final Approvals</t>
+  </si>
+  <si>
+    <t>Approve Vals</t>
+  </si>
+  <si>
+    <t>Reject Vals</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>POI Outcome- Reject Reasons.</t>
+  </si>
+  <si>
+    <t>Submit 3 months’ BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submit 3 additional months’ BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submit payslip</t>
+  </si>
+  <si>
+    <t>Submit ITA34</t>
+  </si>
+  <si>
+    <t>Submit pension letter</t>
+  </si>
+  <si>
+    <t>Submit increase letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Submit latest CIPC cert.</t>
+  </si>
+  <si>
+    <t>Submit latest audited FinStat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amend income details &amp;resubmit</t>
+  </si>
+  <si>
+    <t>Resubmit ID Copy</t>
+  </si>
+  <si>
+    <t>Amend cust name per ID doc</t>
+  </si>
+  <si>
+    <t>Resubmit back/front of ID Card</t>
+  </si>
+  <si>
+    <t>Submit marriage certificate</t>
+  </si>
+  <si>
+    <t>Submit affidavit - tempID/PPT</t>
+  </si>
+  <si>
+    <t>BankDetails must belong toCust</t>
+  </si>
+  <si>
+    <t>Amend banking details</t>
+  </si>
+  <si>
+    <t>Submit POA declarationEvidence</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>KYC - Outcome -Rejection Reasons</t>
+  </si>
+  <si>
+    <t>AVS Outcome Rejection-Reasons</t>
+  </si>
+  <si>
+    <t>POR Outcome- Rejection Reasons</t>
+  </si>
+  <si>
+    <t>KYC Fraud Outcome - Rejection Reasons</t>
+  </si>
+  <si>
+    <t>Operational User</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Bhairub</t>
+  </si>
+  <si>
+    <t>WFG6eKRvi3kvpQ</t>
+  </si>
+  <si>
+    <t>Resubmit ID Copy-k</t>
+  </si>
+  <si>
+    <t>Amend cust name per ID doc-k</t>
+  </si>
+  <si>
+    <t>Resubmit back/front of ID Card-k</t>
+  </si>
+  <si>
+    <t>Submit marriage certificate-k</t>
+  </si>
+  <si>
+    <t>Submit affidavit - tempID/PPT-k</t>
+  </si>
+  <si>
+    <t>Submit valid proof of address</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>Validation Status Table</t>
-  </si>
-  <si>
-    <t>30- Day Pay Out Check</t>
-  </si>
-  <si>
-    <t>KYC Outcome</t>
-  </si>
-  <si>
-    <t>AVS Outcome</t>
-  </si>
-  <si>
-    <t>POI Outcome</t>
-  </si>
-  <si>
-    <t>Check Options</t>
-  </si>
-  <si>
-    <t>Approve/Reject/Retry</t>
-  </si>
-  <si>
-    <t>POR/KYC Outcome Table</t>
-  </si>
-  <si>
-    <t>POR Outcome</t>
-  </si>
-  <si>
-    <t>KYC Fraud Outcome</t>
-  </si>
-  <si>
-    <t>AML Outcome</t>
-  </si>
-  <si>
-    <t>Retry</t>
-  </si>
-  <si>
-    <t>Final Approvals</t>
-  </si>
-  <si>
-    <t>Approve Vals</t>
-  </si>
-  <si>
-    <t>Reject Vals</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>POI Outcome- Reject Reasons.</t>
-  </si>
-  <si>
-    <t>Submit 3 months’ BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Submit 3 additional months’ BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Submit payslip</t>
-  </si>
-  <si>
-    <t>Submit ITA34</t>
-  </si>
-  <si>
-    <t>Submit pension letter</t>
-  </si>
-  <si>
-    <t>Submit increase letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Submit latest CIPC cert.</t>
-  </si>
-  <si>
-    <t>Submit latest audited FinStat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amend income details &amp;resubmit</t>
-  </si>
-  <si>
-    <t>Resubmit ID Copy</t>
-  </si>
-  <si>
-    <t>Amend cust name per ID doc</t>
-  </si>
-  <si>
-    <t>Resubmit back/front of ID Card</t>
-  </si>
-  <si>
-    <t>Submit marriage certificate</t>
-  </si>
-  <si>
-    <t>Submit affidavit - tempID/PPT</t>
-  </si>
-  <si>
-    <t>BankDetails must belong toCust</t>
-  </si>
-  <si>
-    <t>Amend banking details</t>
-  </si>
-  <si>
-    <t>Submit POA declarationEvidence</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>KYC - Outcome -Rejection Reasons</t>
-  </si>
-  <si>
-    <t>AVS Outcome Rejection-Reasons</t>
-  </si>
-  <si>
-    <t>POR Outcome- Rejection Reasons</t>
-  </si>
-  <si>
-    <t>KYC Fraud Outcome - Rejection Reasons</t>
-  </si>
-  <si>
-    <t>Operational User</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Approve</t>
-  </si>
-  <si>
-    <t>Resubmit ID Copy-k</t>
-  </si>
-  <si>
-    <t>Amend cust name per ID doc-k</t>
-  </si>
-  <si>
-    <t>Resubmit back/front of ID Card-k</t>
-  </si>
-  <si>
-    <t>Submit marriage certificate-k</t>
-  </si>
-  <si>
-    <t>Submit affidavit - tempID/PPT-k</t>
-  </si>
-  <si>
-    <t>Submit valid proof of address</t>
-  </si>
-  <si>
-    <t>Fer1C623RGRvD4mN%C</t>
-  </si>
-  <si>
-    <t>raghup</t>
   </si>
 </sst>
 </file>
@@ -735,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C3EC0-A8D8-42A3-B485-490C2BB3164F}">
   <dimension ref="A1:CM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BK5" sqref="BK5"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BN3" sqref="BN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +800,7 @@
       <c r="M1" s="26"/>
       <c r="N1" s="21"/>
       <c r="O1" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
@@ -800,19 +808,19 @@
       <c r="S1" s="26"/>
       <c r="T1" s="21"/>
       <c r="U1" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
       <c r="X1" s="26"/>
       <c r="Y1" s="21"/>
       <c r="Z1" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA1" s="24"/>
       <c r="AB1" s="21"/>
       <c r="AC1" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD1" s="27"/>
       <c r="AE1" s="27"/>
@@ -825,7 +833,7 @@
       <c r="AL1" s="27"/>
       <c r="AM1" s="21"/>
       <c r="AN1" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO1" s="22"/>
       <c r="AP1" s="22"/>
@@ -834,19 +842,19 @@
       <c r="AS1" s="22"/>
       <c r="AT1" s="21"/>
       <c r="AU1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AV1" s="22"/>
       <c r="AW1" s="22"/>
       <c r="AX1" s="21"/>
       <c r="AY1" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AZ1" s="22"/>
       <c r="BA1" s="22"/>
       <c r="BB1" s="21"/>
       <c r="BC1" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BD1" s="22"/>
       <c r="BE1" s="22"/>
@@ -855,7 +863,7 @@
       <c r="BH1" s="22"/>
       <c r="BI1" s="21"/>
       <c r="BJ1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BK1" s="22"/>
     </row>
@@ -901,135 +909,135 @@
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="T2" s="21"/>
       <c r="U2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="Y2" s="21"/>
       <c r="Z2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="AB2" s="21"/>
       <c r="AC2" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="AT2" s="21"/>
       <c r="AU2" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AV2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AX2" s="21"/>
       <c r="AY2" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BB2" s="21"/>
       <c r="BC2" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BD2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="BI2" s="21"/>
       <c r="BJ2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK2" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="BK2" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:91" ht="36" x14ac:dyDescent="0.3">
@@ -1037,160 +1045,160 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="T3" s="21"/>
       <c r="U3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="21"/>
       <c r="Z3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="21"/>
       <c r="AC3" s="23"/>
       <c r="AD3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AM3" s="21"/>
       <c r="AN3" s="23"/>
       <c r="AO3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AS3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT3" s="21"/>
       <c r="AU3" s="23"/>
       <c r="AV3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX3" s="21"/>
       <c r="AY3" s="25"/>
       <c r="AZ3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BB3" s="21"/>
       <c r="BC3" s="25"/>
       <c r="BD3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BE3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BF3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BH3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BI3" s="21"/>
       <c r="BJ3" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="BK3" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.3">
